--- a/src/main/resources/excel/IgnoreTopWordResource.xlsx
+++ b/src/main/resources/excel/IgnoreTopWordResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DA4B79-6C21-4237-94CD-E75C8C9A8DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7E3965-EFC8-4957-B071-7C22CF3930DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,6 +121,100 @@
   </si>
   <si>
     <t>领域</t>
+  </si>
+  <si>
+    <t>股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团</t>
+  </si>
+  <si>
+    <t>标准</t>
   </si>
 </sst>
 </file>
@@ -476,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,6 +945,9 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -861,6 +958,9 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -871,6 +971,9 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -880,7 +983,10 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -890,7 +996,10 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -900,7 +1009,10 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -910,7 +1022,10 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -920,7 +1035,10 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -930,7 +1048,10 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -940,7 +1061,10 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -950,7 +1074,10 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -960,7 +1087,10 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -970,7 +1100,10 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -980,7 +1113,10 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -990,7 +1126,10 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1000,7 +1139,10 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1010,7 +1152,10 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1020,7 +1165,10 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1030,7 +1178,10 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1040,7 +1191,10 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1050,7 +1204,10 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1060,7 +1217,10 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1070,7 +1230,10 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1080,7 +1243,10 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1090,7 +1256,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1100,7 +1266,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1110,7 +1276,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1120,7 +1286,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1130,7 +1296,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1140,7 +1306,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1150,7 +1316,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1160,7 +1326,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1170,7 +1336,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1180,7 +1346,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1190,7 +1356,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>

--- a/src/main/resources/excel/IgnoreTopWordResource.xlsx
+++ b/src/main/resources/excel/IgnoreTopWordResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7E3965-EFC8-4957-B071-7C22CF3930DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F19097-FD5A-4424-9365-AEEFAC3451AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,9 +50,6 @@
     <t>来源</t>
   </si>
   <si>
-    <t>手机</t>
-  </si>
-  <si>
     <t>记者</t>
   </si>
   <si>
@@ -128,10 +125,6 @@
   </si>
   <si>
     <t>同比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -568,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -816,7 +809,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -829,7 +822,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -842,7 +835,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1063,7 +1056,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1076,7 +1069,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1089,7 +1082,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1206,7 +1199,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1219,7 +1212,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1231,9 +1224,6 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1244,9 +1234,6 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1377,24 +1364,10 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="A67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
@@ -1402,11 +1375,11 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
@@ -1414,17 +1387,11 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-    </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/excel/IgnoreTopWordResource.xlsx
+++ b/src/main/resources/excel/IgnoreTopWordResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F19097-FD5A-4424-9365-AEEFAC3451AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DDA4B-B05C-4093-B675-0D2F32851D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -208,6 +208,38 @@
   </si>
   <si>
     <t>标准</t>
+  </si>
+  <si>
+    <t>小区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -564,7 +596,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,6 +1256,9 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1234,6 +1269,9 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1244,6 +1282,9 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1254,6 +1295,9 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1264,6 +1308,9 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1274,6 +1321,9 @@
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1284,6 +1334,9 @@
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1294,6 +1347,9 @@
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>

--- a/src/main/resources/excel/IgnoreTopWordResource.xlsx
+++ b/src/main/resources/excel/IgnoreTopWordResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DDA4B-B05C-4093-B675-0D2F32851D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33942DE-50A4-4739-B75B-111C13D545CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -240,6 +240,33 @@
   <si>
     <t>严重</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财联社</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>时候</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>过程</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>本文</t>
+  </si>
+  <si>
+    <t>新闻</t>
   </si>
 </sst>
 </file>
@@ -595,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1360,6 +1387,9 @@
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1370,6 +1400,9 @@
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1380,6 +1413,9 @@
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1390,6 +1426,9 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1400,6 +1439,9 @@
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1410,6 +1452,9 @@
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1420,13 +1465,19 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
+      <c r="A67" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
+      <c r="A68" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>

--- a/src/main/resources/excel/IgnoreTopWordResource.xlsx
+++ b/src/main/resources/excel/IgnoreTopWordResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33942DE-50A4-4739-B75B-111C13D545CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935AEB63-BFEF-430E-A891-A42163D7E69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -267,6 +267,39 @@
   </si>
   <si>
     <t>新闻</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>全国</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>未来</t>
+  </si>
+  <si>
+    <t>情报</t>
+  </si>
+  <si>
+    <t>快讯</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>龙</t>
+  </si>
+  <si>
+    <t>岛</t>
+  </si>
+  <si>
+    <t>恒</t>
+  </si>
+  <si>
+    <t>沟</t>
   </si>
 </sst>
 </file>
@@ -622,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1480,19 +1513,59 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>

--- a/src/main/resources/excel/IgnoreTopWordResource.xlsx
+++ b/src/main/resources/excel/IgnoreTopWordResource.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935AEB63-BFEF-430E-A891-A42163D7E69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93B056-C16F-40B9-A65E-EBEE43E17DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -300,6 +300,82 @@
   </si>
   <si>
     <t>沟</t>
+  </si>
+  <si>
+    <t>板块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -653,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:A79"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1568,10 +1644,99 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/excel/IgnoreTopWordResource.xlsx
+++ b/src/main/resources/excel/IgnoreTopWordResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\richguy\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93B056-C16F-40B9-A65E-EBEE43E17DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF17281-5E8F-4F94-8A80-2A5619CC7B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>word</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -375,6 +375,70 @@
   </si>
   <si>
     <t>官方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -729,24 +793,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.87890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.76171875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -770,7 +834,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -780,7 +844,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,7 +857,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,7 +870,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -819,7 +883,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -832,7 +896,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -845,7 +909,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -858,7 +922,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -871,7 +935,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -884,7 +948,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,7 +961,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -910,7 +974,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -923,7 +987,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -936,7 +1000,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -949,7 +1013,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -962,7 +1026,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -975,7 +1039,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -988,7 +1052,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1065,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1078,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1091,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1040,7 +1104,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1117,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1066,7 +1130,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1079,7 +1143,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1156,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1105,7 +1169,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1118,7 +1182,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1131,7 +1195,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1144,7 +1208,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1157,7 +1221,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1170,7 +1234,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1183,7 +1247,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1196,7 +1260,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1209,7 +1273,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1222,7 +1286,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -1235,7 +1299,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1248,7 +1312,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1261,7 +1325,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1274,7 +1338,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1287,7 +1351,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1300,7 +1364,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1313,7 +1377,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1326,7 +1390,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1339,7 +1403,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1352,7 +1416,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1365,7 +1429,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1378,7 +1442,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1391,7 +1455,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1404,7 +1468,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1417,7 +1481,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1430,7 +1494,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1443,7 +1507,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -1456,7 +1520,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1469,7 +1533,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1482,7 +1546,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -1495,7 +1559,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1508,7 +1572,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -1521,7 +1585,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -1534,7 +1598,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -1547,7 +1611,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -1560,7 +1624,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1573,169 +1637,249 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
